--- a/data/trans_orig/P04DS1-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P04DS1-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E688A749-A7AC-43D4-BF77-A0B457588FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6BA532F-D933-466B-A79E-C5B7BC6D16C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EADE9E23-90DE-4F16-A138-F36BFEB54F94}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1BCDDACD-66D6-4032-81ED-0FDA0FE800CD}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="625">
   <si>
     <t>Hogares según el tipo de calefacción que tiene la vivienda /respuesta 1 en 2012 (Tasa respuesta: 99,85%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No tiene calefacción</t>
@@ -76,1831 +76,1828 @@
     <t>8,06%</t>
   </si>
   <si>
-    <t>4,27%</t>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>No tiene instalación de calefacción pero sí aparatos calefac</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>Calefacción individual</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
   </si>
   <si>
     <t>15,25%</t>
   </si>
   <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>No tiene instalación de calefacción pero sí aparatos calefac</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>Calefacción colectiva</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
   </si>
   <si>
     <t>68,15%</t>
   </si>
   <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>Calefacción individual</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>Calefacción colectiva</t>
-  </si>
-  <si>
-    <t>2,09%</t>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>70,37%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
+  </si>
+  <si>
+    <t>68,97%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
   </si>
   <si>
     <t>0,64%</t>
   </si>
   <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares según el tipo de calefacción que tiene la vivienda /respuesta 1 en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>59,61%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>55,12%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>Hogares según el tipo de calefacción que tiene la vivienda /respuesta 1 en 2023 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>67,39%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
   </si>
   <si>
     <t>6,03%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>62,64%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>53,42%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares según el tipo de calefacción que tiene la vivienda /respuesta 1 en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>59,54%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>Hogares según el tipo de calefacción que tiene la vivienda /respuesta 1 en 2023 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
   </si>
   <si>
     <t>5,23%</t>
@@ -2327,7 +2324,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CB68FE4-82BB-4518-99CD-F186BAAEA421}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D75A0805-A79E-41F4-BC67-3CA5138DF8F6}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2568,13 +2565,13 @@
         <v>17068</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>42</v>
@@ -2583,19 +2580,19 @@
         <v>42383</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>3</v>
@@ -2604,13 +2601,13 @@
         <v>2396</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -2619,13 +2616,13 @@
         <v>1085</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -2634,13 +2631,13 @@
         <v>3481</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2655,13 +2652,13 @@
         <v>114800</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>99</v>
@@ -2670,13 +2667,13 @@
         <v>111905</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
         <v>220</v>
@@ -2685,18 +2682,18 @@
         <v>226705</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -2708,13 +2705,13 @@
         <v>19214</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>22</v>
@@ -2723,13 +2720,13 @@
         <v>23418</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>41</v>
@@ -2738,13 +2735,13 @@
         <v>42632</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2759,13 +2756,13 @@
         <v>399278</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>363</v>
@@ -2774,13 +2771,13 @@
         <v>387212</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>740</v>
@@ -2789,13 +2786,13 @@
         <v>786490</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2810,13 +2807,13 @@
         <v>151688</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H11" s="7">
         <v>153</v>
@@ -2825,13 +2822,13 @@
         <v>159712</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M11" s="7">
         <v>293</v>
@@ -2840,19 +2837,19 @@
         <v>311400</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
         <v>14</v>
@@ -2861,13 +2858,13 @@
         <v>15725</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>12</v>
@@ -2876,13 +2873,13 @@
         <v>13678</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M12" s="7">
         <v>26</v>
@@ -2891,13 +2888,13 @@
         <v>29403</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2912,13 +2909,13 @@
         <v>585905</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>550</v>
@@ -2927,13 +2924,13 @@
         <v>584020</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
         <v>1100</v>
@@ -2942,18 +2939,18 @@
         <v>1169925</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2965,13 +2962,13 @@
         <v>30358</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>29</v>
@@ -2980,13 +2977,13 @@
         <v>31862</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>55</v>
@@ -2995,13 +2992,13 @@
         <v>62220</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3016,13 +3013,13 @@
         <v>670033</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>637</v>
@@ -3031,13 +3028,13 @@
         <v>700639</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>1256</v>
@@ -3046,13 +3043,13 @@
         <v>1370671</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3067,13 +3064,13 @@
         <v>278368</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>240</v>
@@ -3082,13 +3079,13 @@
         <v>261822</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>496</v>
@@ -3097,19 +3094,19 @@
         <v>540191</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
         <v>33</v>
@@ -3118,13 +3115,13 @@
         <v>35805</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>32</v>
@@ -3133,13 +3130,13 @@
         <v>35771</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>65</v>
@@ -3148,13 +3145,13 @@
         <v>71576</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3169,13 +3166,13 @@
         <v>1014564</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
         <v>938</v>
@@ -3184,33 +3181,33 @@
         <v>1030094</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
         <v>1872</v>
       </c>
       <c r="N18" s="7">
-        <v>2044657</v>
+        <v>2044658</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3222,13 +3219,13 @@
         <v>56034</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>36</v>
@@ -3237,13 +3234,13 @@
         <v>42153</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>86</v>
@@ -3252,13 +3249,13 @@
         <v>98187</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3273,13 +3270,13 @@
         <v>505873</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>509</v>
@@ -3288,13 +3285,13 @@
         <v>559130</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>966</v>
@@ -3303,13 +3300,13 @@
         <v>1065003</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3324,13 +3321,13 @@
         <v>188709</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>154</v>
@@ -3339,13 +3336,13 @@
         <v>169919</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>329</v>
@@ -3354,19 +3351,19 @@
         <v>358627</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
         <v>6</v>
@@ -3375,13 +3372,13 @@
         <v>6060</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -3390,13 +3387,13 @@
         <v>4981</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>41</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>11</v>
@@ -3405,13 +3402,13 @@
         <v>11041</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3426,13 +3423,13 @@
         <v>756676</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
         <v>704</v>
@@ -3441,13 +3438,13 @@
         <v>776182</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
         <v>1392</v>
@@ -3456,18 +3453,18 @@
         <v>1532858</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3479,13 +3476,13 @@
         <v>27261</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="H24" s="7">
         <v>52</v>
@@ -3494,13 +3491,13 @@
         <v>54680</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M24" s="7">
         <v>78</v>
@@ -3509,13 +3506,13 @@
         <v>81941</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3530,13 +3527,13 @@
         <v>503552</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H25" s="7">
         <v>534</v>
@@ -3545,13 +3542,13 @@
         <v>561918</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>1019</v>
@@ -3560,13 +3557,13 @@
         <v>1065469</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3581,13 +3578,13 @@
         <v>369383</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H26" s="7">
         <v>377</v>
@@ -3596,13 +3593,13 @@
         <v>395243</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M26" s="7">
         <v>728</v>
@@ -3611,19 +3608,19 @@
         <v>764626</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27" s="7">
         <v>48</v>
@@ -3632,13 +3629,13 @@
         <v>47543</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H27" s="7">
         <v>40</v>
@@ -3647,13 +3644,13 @@
         <v>40061</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="M27" s="7">
         <v>88</v>
@@ -3662,13 +3659,13 @@
         <v>87604</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>121</v>
+        <v>195</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3683,13 +3680,13 @@
         <v>947739</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H28" s="7">
         <v>1003</v>
@@ -3698,13 +3695,13 @@
         <v>1051901</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M28" s="7">
         <v>1913</v>
@@ -3713,13 +3710,13 @@
         <v>1999640</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3736,13 +3733,13 @@
         <v>142116</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="H29" s="7">
         <v>146</v>
@@ -3751,13 +3748,13 @@
         <v>159575</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="M29" s="7">
         <v>277</v>
@@ -3766,13 +3763,13 @@
         <v>301691</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>45</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3787,13 +3784,13 @@
         <v>2156576</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="H30" s="7">
         <v>2118</v>
@@ -3802,13 +3799,13 @@
         <v>2295187</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="M30" s="7">
         <v>4138</v>
@@ -3817,13 +3814,13 @@
         <v>4451762</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3838,13 +3835,13 @@
         <v>1013463</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="H31" s="7">
         <v>940</v>
@@ -3853,13 +3850,13 @@
         <v>1003764</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="M31" s="7">
         <v>1888</v>
@@ -3868,19 +3865,19 @@
         <v>2017227</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C32" s="7">
         <v>104</v>
@@ -3889,13 +3886,13 @@
         <v>107529</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="H32" s="7">
         <v>90</v>
@@ -3904,13 +3901,13 @@
         <v>95576</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>222</v>
+        <v>52</v>
       </c>
       <c r="M32" s="7">
         <v>194</v>
@@ -3919,13 +3916,13 @@
         <v>203105</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3940,13 +3937,13 @@
         <v>3419684</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H33" s="7">
         <v>3294</v>
@@ -3955,13 +3952,13 @@
         <v>3554102</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M33" s="7">
         <v>6497</v>
@@ -3970,18 +3967,18 @@
         <v>6973786</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -4002,7 +3999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70E34531-C1BE-4CBA-80F9-B7C63D389712}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B0F0AF9-A0C1-457B-91D9-B6DDEDBF1E42}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4019,7 +4016,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4126,13 +4123,13 @@
         <v>13482</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="H4" s="7">
         <v>18</v>
@@ -4141,13 +4138,13 @@
         <v>16820</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="M4" s="7">
         <v>31</v>
@@ -4156,13 +4153,13 @@
         <v>30302</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4177,13 +4174,13 @@
         <v>61275</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="H5" s="7">
         <v>69</v>
@@ -4192,13 +4189,13 @@
         <v>67991</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="M5" s="7">
         <v>129</v>
@@ -4207,13 +4204,13 @@
         <v>129267</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4228,13 +4225,13 @@
         <v>41789</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="H6" s="7">
         <v>24</v>
@@ -4243,13 +4240,13 @@
         <v>24878</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="M6" s="7">
         <v>64</v>
@@ -4258,19 +4255,19 @@
         <v>66667</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -4279,13 +4276,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>256</v>
+        <v>85</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -4294,13 +4291,13 @@
         <v>3671</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -4309,13 +4306,13 @@
         <v>3671</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4330,13 +4327,13 @@
         <v>116546</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>115</v>
@@ -4345,13 +4342,13 @@
         <v>113360</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
         <v>228</v>
@@ -4360,18 +4357,18 @@
         <v>229906</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -4383,13 +4380,13 @@
         <v>111911</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="H9" s="7">
         <v>97</v>
@@ -4398,13 +4395,13 @@
         <v>98218</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="M9" s="7">
         <v>199</v>
@@ -4413,13 +4410,13 @@
         <v>210129</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4434,13 +4431,13 @@
         <v>303205</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="H10" s="7">
         <v>302</v>
@@ -4449,13 +4446,13 @@
         <v>305651</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="M10" s="7">
         <v>603</v>
@@ -4464,13 +4461,13 @@
         <v>608856</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4485,13 +4482,13 @@
         <v>134300</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="H11" s="7">
         <v>140</v>
@@ -4500,13 +4497,13 @@
         <v>144513</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>286</v>
+        <v>215</v>
       </c>
       <c r="M11" s="7">
         <v>267</v>
@@ -4515,19 +4512,19 @@
         <v>278813</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
         <v>9</v>
@@ -4536,13 +4533,13 @@
         <v>8837</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="H12" s="7">
         <v>12</v>
@@ -4551,13 +4548,13 @@
         <v>11097</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="M12" s="7">
         <v>21</v>
@@ -4566,13 +4563,13 @@
         <v>19934</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>297</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4587,13 +4584,13 @@
         <v>558254</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>551</v>
@@ -4602,13 +4599,13 @@
         <v>559479</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
         <v>1090</v>
@@ -4617,18 +4614,18 @@
         <v>1117733</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -4640,13 +4637,13 @@
         <v>151077</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H14" s="7">
         <v>139</v>
@@ -4655,13 +4652,13 @@
         <v>144257</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M14" s="7">
         <v>276</v>
@@ -4670,13 +4667,13 @@
         <v>295334</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4691,13 +4688,13 @@
         <v>577914</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H15" s="7">
         <v>549</v>
@@ -4706,13 +4703,13 @@
         <v>588386</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M15" s="7">
         <v>1089</v>
@@ -4721,13 +4718,13 @@
         <v>1166299</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4742,13 +4739,13 @@
         <v>278706</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="H16" s="7">
         <v>279</v>
@@ -4757,13 +4754,13 @@
         <v>300670</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M16" s="7">
         <v>539</v>
@@ -4772,19 +4769,19 @@
         <v>579376</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
         <v>14</v>
@@ -4793,13 +4790,13 @@
         <v>14734</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>78</v>
+        <v>327</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -4808,13 +4805,13 @@
         <v>9600</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="M17" s="7">
         <v>24</v>
@@ -4823,13 +4820,13 @@
         <v>24334</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4844,13 +4841,13 @@
         <v>1022431</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
         <v>977</v>
@@ -4859,13 +4856,13 @@
         <v>1042913</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
         <v>1928</v>
@@ -4874,18 +4871,18 @@
         <v>2065344</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4897,13 +4894,13 @@
         <v>155593</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H19" s="7">
         <v>139</v>
@@ -4912,13 +4909,13 @@
         <v>152581</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="M19" s="7">
         <v>280</v>
@@ -4927,13 +4924,13 @@
         <v>308174</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4948,13 +4945,13 @@
         <v>326271</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H20" s="7">
         <v>311</v>
@@ -4963,13 +4960,13 @@
         <v>322471</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="M20" s="7">
         <v>616</v>
@@ -4978,13 +4975,13 @@
         <v>648741</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4999,13 +4996,13 @@
         <v>263326</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="H21" s="7">
         <v>271</v>
@@ -5014,13 +5011,13 @@
         <v>293818</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M21" s="7">
         <v>509</v>
@@ -5029,19 +5026,19 @@
         <v>557144</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
         <v>12</v>
@@ -5050,13 +5047,13 @@
         <v>14363</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="H22" s="7">
         <v>15</v>
@@ -5065,13 +5062,13 @@
         <v>16141</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>363</v>
+        <v>89</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="M22" s="7">
         <v>27</v>
@@ -5083,10 +5080,10 @@
         <v>366</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5101,13 +5098,13 @@
         <v>759552</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
         <v>736</v>
@@ -5116,13 +5113,13 @@
         <v>785011</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
         <v>1432</v>
@@ -5131,18 +5128,18 @@
         <v>1544563</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5154,13 +5151,13 @@
         <v>101508</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H24" s="7">
         <v>93</v>
@@ -5169,13 +5166,13 @@
         <v>102918</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M24" s="7">
         <v>187</v>
@@ -5184,13 +5181,13 @@
         <v>204426</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5205,13 +5202,13 @@
         <v>527761</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H25" s="7">
         <v>523</v>
@@ -5220,13 +5217,13 @@
         <v>564319</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M25" s="7">
         <v>1054</v>
@@ -5235,13 +5232,13 @@
         <v>1092080</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5256,13 +5253,13 @@
         <v>251226</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H26" s="7">
         <v>300</v>
@@ -5271,13 +5268,13 @@
         <v>329098</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M26" s="7">
         <v>551</v>
@@ -5286,19 +5283,19 @@
         <v>580324</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27" s="7">
         <v>56</v>
@@ -5307,13 +5304,13 @@
         <v>57072</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>131</v>
+        <v>398</v>
       </c>
       <c r="H27" s="7">
         <v>43</v>
@@ -5322,13 +5319,13 @@
         <v>47444</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>398</v>
+        <v>261</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M27" s="7">
         <v>99</v>
@@ -5337,13 +5334,13 @@
         <v>104516</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>400</v>
+        <v>197</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>401</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>42</v>
+        <v>402</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5358,13 +5355,13 @@
         <v>937567</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H28" s="7">
         <v>959</v>
@@ -5373,13 +5370,13 @@
         <v>1043779</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M28" s="7">
         <v>1891</v>
@@ -5388,13 +5385,13 @@
         <v>1981346</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5411,13 +5408,13 @@
         <v>533571</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>404</v>
+        <v>302</v>
       </c>
       <c r="H29" s="7">
         <v>486</v>
@@ -5447,7 +5444,7 @@
         <v>409</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>410</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5462,7 +5459,7 @@
         <v>1796426</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>378</v>
+        <v>410</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>411</v>
@@ -5555,7 +5552,7 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C32" s="7">
         <v>91</v>
@@ -5564,13 +5561,13 @@
         <v>95006</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>189</v>
+        <v>428</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H32" s="7">
         <v>84</v>
@@ -5579,13 +5576,13 @@
         <v>87953</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>114</v>
+        <v>431</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>366</v>
+        <v>432</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>92</v>
+        <v>433</v>
       </c>
       <c r="M32" s="7">
         <v>175</v>
@@ -5594,13 +5591,13 @@
         <v>182959</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>92</v>
+        <v>433</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5615,13 +5612,13 @@
         <v>3394350</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H33" s="7">
         <v>3338</v>
@@ -5630,13 +5627,13 @@
         <v>3544542</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M33" s="7">
         <v>6569</v>
@@ -5645,18 +5642,18 @@
         <v>6938892</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -5677,7 +5674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4D3D949-9909-43CB-9F9E-2BB4D261CCB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB8AFEFD-0BF7-4A93-A7B8-F445222A2568}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5694,7 +5691,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5801,13 +5798,13 @@
         <v>5759</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="H4" s="7">
         <v>17</v>
@@ -5816,13 +5813,13 @@
         <v>9908</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="M4" s="7">
         <v>24</v>
@@ -5831,13 +5828,13 @@
         <v>15667</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5852,13 +5849,13 @@
         <v>72449</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="H5" s="7">
         <v>177</v>
@@ -5867,13 +5864,13 @@
         <v>93777</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="M5" s="7">
         <v>259</v>
@@ -5882,13 +5879,13 @@
         <v>166226</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5903,13 +5900,13 @@
         <v>17414</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="H6" s="7">
         <v>39</v>
@@ -5918,13 +5915,13 @@
         <v>21227</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="M6" s="7">
         <v>59</v>
@@ -5933,19 +5930,19 @@
         <v>38642</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>458</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>8</v>
@@ -5954,13 +5951,13 @@
         <v>5283</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -5969,13 +5966,13 @@
         <v>5820</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>462</v>
+        <v>92</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -5984,13 +5981,13 @@
         <v>11103</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6005,13 +6002,13 @@
         <v>100905</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>243</v>
@@ -6020,13 +6017,13 @@
         <v>130733</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
         <v>360</v>
@@ -6035,18 +6032,18 @@
         <v>231638</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -6058,13 +6055,13 @@
         <v>17391</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="H9" s="7">
         <v>45</v>
@@ -6073,13 +6070,13 @@
         <v>26871</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="M9" s="7">
         <v>68</v>
@@ -6088,13 +6085,13 @@
         <v>44262</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>474</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6109,13 +6106,13 @@
         <v>422370</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H10" s="7">
         <v>761</v>
@@ -6124,13 +6121,13 @@
         <v>464299</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M10" s="7">
         <v>1235</v>
@@ -6139,13 +6136,13 @@
         <v>886669</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6160,13 +6157,13 @@
         <v>79813</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H11" s="7">
         <v>134</v>
@@ -6175,13 +6172,13 @@
         <v>90915</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>340</v>
+        <v>490</v>
       </c>
       <c r="M11" s="7">
         <v>211</v>
@@ -6190,19 +6187,19 @@
         <v>170728</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
         <v>37</v>
@@ -6211,13 +6208,13 @@
         <v>29198</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>493</v>
+        <v>190</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H12" s="7">
         <v>57</v>
@@ -6226,13 +6223,13 @@
         <v>37213</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>496</v>
+        <v>133</v>
       </c>
       <c r="M12" s="7">
         <v>94</v>
@@ -6262,13 +6259,13 @@
         <v>548773</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>997</v>
@@ -6277,13 +6274,13 @@
         <v>619297</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
         <v>1608</v>
@@ -6292,18 +6289,18 @@
         <v>1168070</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -6396,7 +6393,7 @@
         <v>1389210</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>512</v>
@@ -6459,7 +6456,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
         <v>57</v>
@@ -6486,7 +6483,7 @@
         <v>526</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>527</v>
@@ -6519,13 +6516,13 @@
         <v>1038075</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
         <v>1514</v>
@@ -6534,13 +6531,13 @@
         <v>1057341</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
         <v>2477</v>
@@ -6549,18 +6546,18 @@
         <v>2095416</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6572,7 +6569,7 @@
         <v>140470</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>531</v>
@@ -6689,13 +6686,13 @@
         <v>68121</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>131</v>
+        <v>551</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>130</v>
+        <v>552</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="M21" s="7">
         <v>179</v>
@@ -6704,19 +6701,19 @@
         <v>138601</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
         <v>34</v>
@@ -6725,13 +6722,13 @@
         <v>33620</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="H22" s="7">
         <v>36</v>
@@ -6740,13 +6737,13 @@
         <v>24548</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>557</v>
+        <v>294</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M22" s="7">
         <v>70</v>
@@ -6755,13 +6752,13 @@
         <v>58168</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>561</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6776,13 +6773,13 @@
         <v>727691</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
         <v>1044</v>
@@ -6791,13 +6788,13 @@
         <v>872211</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
         <v>1717</v>
@@ -6806,18 +6803,18 @@
         <v>1599903</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6880,13 +6877,13 @@
         <v>552185</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>572</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>573</v>
       </c>
       <c r="H25" s="7">
         <v>896</v>
@@ -6895,13 +6892,13 @@
         <v>659970</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>575</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>576</v>
       </c>
       <c r="M25" s="7">
         <v>1481</v>
@@ -6910,13 +6907,13 @@
         <v>1212155</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>577</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>578</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6931,13 +6928,13 @@
         <v>225237</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>580</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>581</v>
       </c>
       <c r="H26" s="7">
         <v>363</v>
@@ -6946,13 +6943,13 @@
         <v>265281</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>583</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>584</v>
       </c>
       <c r="M26" s="7">
         <v>592</v>
@@ -6961,19 +6958,19 @@
         <v>490519</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>585</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>586</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27" s="7">
         <v>88</v>
@@ -6982,13 +6979,13 @@
         <v>80297</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>588</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>589</v>
       </c>
       <c r="H27" s="7">
         <v>134</v>
@@ -6997,13 +6994,13 @@
         <v>93292</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>591</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>592</v>
       </c>
       <c r="M27" s="7">
         <v>222</v>
@@ -7012,13 +7009,13 @@
         <v>173589</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>593</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>594</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7033,13 +7030,13 @@
         <v>963107</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H28" s="7">
         <v>1557</v>
@@ -7048,13 +7045,13 @@
         <v>1147166</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M28" s="7">
         <v>2561</v>
@@ -7063,13 +7060,13 @@
         <v>2110273</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7086,13 +7083,13 @@
         <v>355733</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>596</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>597</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>598</v>
       </c>
       <c r="H29" s="7">
         <v>612</v>
@@ -7101,10 +7098,10 @@
         <v>412018</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>599</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>600</v>
@@ -7122,7 +7119,7 @@
         <v>601</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7167,7 +7164,7 @@
         <v>4758607</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>608</v>
@@ -7188,13 +7185,13 @@
         <v>637667</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>610</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>611</v>
-      </c>
       <c r="G31" s="7" t="s">
-        <v>612</v>
+        <v>337</v>
       </c>
       <c r="H31" s="7">
         <v>862</v>
@@ -7203,13 +7200,13 @@
         <v>605048</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>613</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>614</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>615</v>
       </c>
       <c r="M31" s="7">
         <v>1435</v>
@@ -7218,19 +7215,19 @@
         <v>1242714</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C32" s="7">
         <v>224</v>
@@ -7239,13 +7236,13 @@
         <v>205467</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>618</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>620</v>
       </c>
       <c r="H32" s="7">
         <v>332</v>
@@ -7254,13 +7251,13 @@
         <v>230760</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>56</v>
+        <v>619</v>
       </c>
       <c r="K32" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>621</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>622</v>
       </c>
       <c r="M32" s="7">
         <v>556</v>
@@ -7269,13 +7266,13 @@
         <v>436227</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>623</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>624</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7290,13 +7287,13 @@
         <v>3378552</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H33" s="7">
         <v>5355</v>
@@ -7305,13 +7302,13 @@
         <v>3826748</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M33" s="7">
         <v>8723</v>
@@ -7320,18 +7317,18 @@
         <v>7205300</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
